--- a/licensedocs/licenses.xlsx
+++ b/licensedocs/licenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FC200-E587-104B-A52D-0481A30684D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FEA65B-2442-2341-8D93-F518AACA4466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{58FFFDB0-D8C8-1041-844F-744839222968}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -491,7 +490,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
